--- a/biology/Histoire de la zoologie et de la botanique/Elwood_Curtin_Zimmerman/Elwood_Curtin_Zimmerman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elwood_Curtin_Zimmerman/Elwood_Curtin_Zimmerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elwood Curtin Zimmerman est un entomologiste américain, né le 8 décembre 1912 à Spokane, Washington et mort le 18 juin 2004.
 Il est employé par le Pacific Entomological Survey en 1930 et poursuit ses études à Berkeley. Celles-ci sont interrompues en 1932, car sa réputation croissante, le font choisir comme entomologiste pour une expédition organisée le muséum Bishop d’Hawaii. Celle-ci conduite par Charles Montague Cooke (1849-1909) visite une cinquantaine d’îles de la Polynésie. Après avoir obtenu ses diplômes (Master of Arts et Bachelor of Sciences) en 1934, il entre naturellement au muséum Bishop où il commence à travailler sur l’œuvre de sa vie : une série de livres consacrés aux insectes de l’archipel hawaiien. En 1936-1937 et en 1940-1941, il donne des cours à l’université d’Hawaii.
@@ -517,7 +529,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Murray S. Upton et Rolf Oberprieler (2004). Elwood Curtin Zimmerman, World Authority on Weevils, XII-08-1912 to VI-18-2004, Curculio, 49 : 20-22.</t>
         </is>
